--- a/webapp/Survey Items to Variable Names.xlsx
+++ b/webapp/Survey Items to Variable Names.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA41CD-DAED-428F-8961-0057C0EBF338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
   <si>
     <t>Language.Other.English</t>
   </si>
@@ -82,24 +83,9 @@
     <t>Race.Ethnicity.African.American.Black</t>
   </si>
   <si>
-    <t>Race.Ethnicity.White.Caucasian</t>
-  </si>
-  <si>
-    <t>Race.Ethnicity.Asian</t>
-  </si>
-  <si>
-    <t>Race.Ethnicity.Hispanic.Latino</t>
-  </si>
-  <si>
     <t>Race.Ethnicity.Middle.Eastern</t>
   </si>
   <si>
-    <t>Race.Ethnicity.Native.Hawaiian.Pacific.Islander</t>
-  </si>
-  <si>
-    <t>Race.Ethnicity.American.Indian.Alaskan.Native</t>
-  </si>
-  <si>
     <t>Race.Ethnicity.Other</t>
   </si>
   <si>
@@ -136,12 +122,6 @@
     <t>African American/Black:What is your race/ethnicity (choose all that apply)</t>
   </si>
   <si>
-    <t>American Indian/Alaskan Native:What is your race/ethnicity (choose all that apply)</t>
-  </si>
-  <si>
-    <t>Asian:What is your race/ethnicity (choose all that apply)</t>
-  </si>
-  <si>
     <t>City:SYAddress</t>
   </si>
   <si>
@@ -160,9 +140,6 @@
     <t>High school (9-12):What grade level(s) have you worked with in the past? Please select all that apply.</t>
   </si>
   <si>
-    <t>Hispanic/Latino:What is your race/ethnicity (choose all that apply)</t>
-  </si>
-  <si>
     <t>How will you travel to your school site?</t>
   </si>
   <si>
@@ -175,9 +152,6 @@
     <t>Months Teaching</t>
   </si>
   <si>
-    <t>Native Hawaiian or Pacific Islander:What is your race/ethnicity (choose all that apply)</t>
-  </si>
-  <si>
     <t>State:SYAddress</t>
   </si>
   <si>
@@ -196,9 +170,6 @@
     <t>What is your date of birth?</t>
   </si>
   <si>
-    <t>White/Caucasian:What is your race/ethnicity (choose all that apply)</t>
-  </si>
-  <si>
     <t>Will you be living with other City Year AmeriCorps members during the school year?:SYAddress</t>
   </si>
   <si>
@@ -277,9 +248,6 @@
     <t>Prior.Relationship</t>
   </si>
   <si>
-    <t>Other - Write In:What is your race/ethnicity (choose all that apply).1</t>
-  </si>
-  <si>
     <t>Other - Write In (Required):Other language .1</t>
   </si>
   <si>
@@ -389,12 +357,57 @@
   </si>
   <si>
     <t>Roommate.Name5</t>
+  </si>
+  <si>
+    <t>East Asian (including Chinese, Japanese, Korean, Mongolian, Tibetan, and Taiwanese):What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Latinx:What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Native American/Alaskan Native:What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Pacific Islander:What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>South Asian (including Bangladeshi, Bhutanese, Indian, Nepali, Pakistani, and Sri Lankan):What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Southeast Asian (including Burmese, Cambodian, Filipino, Hmong, Indonesian, Laotian, Malaysian, Mien, Singaporean, Thai, and Vietnamese):What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>White:What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Other - please specify:What is your race/ethnicity (choose all that apply)</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.East.Asian</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.Latinx</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.Pacific.Islander</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.South.Asian</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.Southeast.Asian</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.Native.American.Alaskan.Native</t>
+  </si>
+  <si>
+    <t>Race.Ethnicity.White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -810,663 +823,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="175.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="65" x14ac:dyDescent="0.3"/>
-    <row r="66" x14ac:dyDescent="0.3"/>
-    <row r="67" x14ac:dyDescent="0.3"/>
-    <row r="68" x14ac:dyDescent="0.3"/>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
